--- a/FileGunBasin/9 August-04 StormBasin/370 sko related but different - gbp worker fb - listings/kr exports stuff 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/370 sko related but different - gbp worker fb - listings/kr exports stuff 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/370 sko related but different - gbp worker fb - listings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E44DFC-D27A-234B-886A-804B26D5914B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468D4D42-3E48-0B43-8394-9960B6416A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{D1862B61-F6C7-EA47-BF6E-DA13A3862256}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>krexports</t>
   </si>
@@ -78,6 +78,117 @@
   </si>
   <si>
     <t>actual text content of a field</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t># Pantheon source key</t>
+  </si>
+  <si>
+    <t>columns in ui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planches (multiple relations needed) </t>
+  </si>
+  <si>
+    <t>=====</t>
+  </si>
+  <si>
+    <t>driggspack1</t>
+  </si>
+  <si>
+    <t>krexport_type</t>
+  </si>
+  <si>
+    <t>pk serial</t>
+  </si>
+  <si>
+    <t>sitespren.sitespren_id=137</t>
+  </si>
+  <si>
+    <t>input_key</t>
+  </si>
+  <si>
+    <t>not actually a db field</t>
+  </si>
+  <si>
+    <t>EXCLUDE FROM DB</t>
+  </si>
+  <si>
+    <t>keev_schema</t>
+  </si>
+  <si>
+    <t>NOT A DB FIELD - BUT AN OUTPUT</t>
+  </si>
+  <si>
+    <t>keevschema</t>
+  </si>
+  <si>
+    <t>default rows that show in the table designated as admin_public</t>
+  </si>
+  <si>
+    <t>is_adminpublic</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>is_personal</t>
+  </si>
+  <si>
+    <t>TRUE (DEFAULT)</t>
+  </si>
+  <si>
+    <t>FALSE (default)</t>
+  </si>
+  <si>
+    <t>example data</t>
+  </si>
+  <si>
+    <t>db field name</t>
+  </si>
+  <si>
+    <t>field type</t>
+  </si>
+  <si>
+    <t>db table</t>
+  </si>
+  <si>
+    <t>rel_planch_to_add_above</t>
+  </si>
+  <si>
+    <t>fk to planches.planch_id</t>
+  </si>
+  <si>
+    <t>note: this wont work with adminpublic stuff</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>separated by both equal signs(=) and hyphens (-)</t>
+  </si>
+  <si>
+    <t>export_values</t>
+  </si>
+  <si>
+    <t>export_field_names</t>
+  </si>
+  <si>
+    <t>paste-able into excel</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>fk to users.id</t>
   </si>
 </sst>
 </file>
@@ -145,12 +256,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,17 +599,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A162CD70-EC30-8F4F-8CF6-CA95F0042091}">
-  <dimension ref="D1:G85"/>
+  <dimension ref="C1:G132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -569,51 +684,347 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="35" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E38" t="s">
+    <row r="35" spans="3:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="3" t="s">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E40" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E41" t="s">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
         <v>6</v>
       </c>
-      <c r="F41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E42" t="s">
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
         <v>9</v>
       </c>
-      <c r="F42" t="s">
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>10</v>
       </c>
-      <c r="F43" t="s">
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E44" t="s">
+      <c r="E45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F44" t="s">
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E56" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E57" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E58" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C62" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="E64" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>50</v>
+      </c>
+      <c r="E72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E80" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F80" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E81" s="3"/>
+      <c r="F81" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E82" s="3"/>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E87" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>40</v>
+      </c>
+      <c r="E88" t="s">
+        <v>39</v>
+      </c>
+      <c r="F88" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="4:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E104" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D106" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" t="s">
+        <v>23</v>
+      </c>
+      <c r="F107" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D109" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" t="s">
+        <v>27</v>
+      </c>
+      <c r="F109" t="s">
+        <v>27</v>
+      </c>
+      <c r="G109" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E110" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E116" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E118" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FileGunBasin/9 August-04 StormBasin/370 sko related but different - gbp worker fb - listings/kr exports stuff 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/370 sko related but different - gbp worker fb - listings/kr exports stuff 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/370 sko related but different - gbp worker fb - listings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468D4D42-3E48-0B43-8394-9960B6416A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B291A601-79B0-A643-B988-4B704C875934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{D1862B61-F6C7-EA47-BF6E-DA13A3862256}"/>
   </bookViews>
@@ -603,7 +603,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
+      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/370 sko related but different - gbp worker fb - listings/kr exports stuff 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/370 sko related but different - gbp worker fb - listings/kr exports stuff 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/370 sko related but different - gbp worker fb - listings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B291A601-79B0-A643-B988-4B704C875934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F0D828-5EBF-D749-949C-E58B9B80BC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{D1862B61-F6C7-EA47-BF6E-DA13A3862256}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>krexports</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>fk to users.id</t>
+  </si>
+  <si>
+    <t>timestamp</t>
   </si>
 </sst>
 </file>
@@ -599,11 +602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A162CD70-EC30-8F4F-8CF6-CA95F0042091}">
-  <dimension ref="C1:G132"/>
+  <dimension ref="C1:G133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -686,41 +689,30 @@
     </row>
     <row r="35" spans="3:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E39" t="s">
+      <c r="C39" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C41" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.2">
@@ -728,10 +720,13 @@
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
@@ -742,7 +737,7 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.2">
@@ -752,21 +747,47 @@
       <c r="D45" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>51</v>
+      </c>
       <c r="E47" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>51</v>
+      </c>
       <c r="E48" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C49" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D49" t="s">
         <v>50</v>
       </c>
@@ -774,49 +795,35 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="3:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E56" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
+    <row r="56" spans="3:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E57" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E58" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E59" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C62" s="3" t="s">
+    <row r="60" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C63" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="5">
-        <v>1</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.2">
@@ -824,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E64" t="s">
-        <v>20</v>
-      </c>
-      <c r="F64" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="F64" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.2">
@@ -840,19 +847,19 @@
       <c r="D65" t="s">
         <v>8</v>
       </c>
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>31</v>
-      </c>
-      <c r="E66" t="s">
-        <v>30</v>
-      </c>
-      <c r="F66" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.2">
@@ -863,39 +870,42 @@
         <v>31</v>
       </c>
       <c r="E67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" t="s">
         <v>32</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F68" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E70" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D72" t="s">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
         <v>50</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E73" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D77" t="s">
-        <v>31</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F77" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.2">
@@ -903,129 +913,141 @@
         <v>31</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E79" s="3"/>
+      <c r="D79" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E81" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F81" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E81" s="3"/>
-      <c r="F81" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E82" s="3"/>
-    </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E87" s="3" t="s">
+      <c r="F82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E83" s="3"/>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E88" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C88" t="s">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
         <v>0</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D89" t="s">
         <v>40</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E89" t="s">
         <v>39</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F89" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E96" t="s">
+    <row r="94" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="4:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E104" t="s">
+    <row r="103" spans="4:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E105" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D106" t="s">
-        <v>25</v>
-      </c>
-      <c r="E106" t="s">
-        <v>25</v>
-      </c>
-      <c r="F106" t="s">
-        <v>25</v>
-      </c>
-      <c r="G106" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="107" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
+        <v>25</v>
+      </c>
+      <c r="E107" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D108" t="s">
         <v>24</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E108" t="s">
         <v>23</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F108" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D109" t="s">
+    <row r="110" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
         <v>27</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E110" t="s">
         <v>27</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F110" t="s">
         <v>27</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G110" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E110" t="s">
+    <row r="111" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E111" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E116" s="3" t="s">
+    <row r="117" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E117" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E118" t="s">
+    <row r="119" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E119" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E120" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E122" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/FileGunBasin/9 August-04 StormBasin/370 sko related but different - gbp worker fb - listings/kr exports stuff 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/370 sko related but different - gbp worker fb - listings/kr exports stuff 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/370 sko related but different - gbp worker fb - listings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F0D828-5EBF-D749-949C-E58B9B80BC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE439DED-57DA-EA4B-92FB-1466A05534DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{D1862B61-F6C7-EA47-BF6E-DA13A3862256}"/>
   </bookViews>
@@ -606,7 +606,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
